--- a/complaints_call/storage_xlsx/dataset_call.xlsx
+++ b/complaints_call/storage_xlsx/dataset_call.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
@@ -1172,6 +1172,970 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>624042700253500</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>237661341827</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>8655500200407700</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>237660001052</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>10.124.208.81</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>no_exist:Subscriber exists in any MSS. Restart phone;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3564350962767101</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;cfb:cfb is defined to 160664022676;cfnrc:cfnrc is defined to 160664022676;cfnry:cfnry is defined to 160664022676;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>624042702533402</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>237669800046</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>isActiveIMSI:Subscriber is not attached. Try to restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>624042700253500</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>237661341827</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>8655500200407700</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>237660001052</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10.124.208.81</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>no_exist:Subscriber exists in any MSS. Restart phone;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>624042702533402</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>237669800046</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>isActiveIMSI:Subscriber is not attached. Try to restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=eca73f52-e405-47d3-aa94-7958676ec407, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>624042741270300</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>237663289463</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3534861096393501</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>DOMS01:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3564350962767101</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;cfb:cfb is defined to 160664022676;cfnrc:cfnrc is defined to 160664022676;cfnry:cfnry is defined to 160664022676;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>8661060316883858</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>DOMS01:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/complaints_call/storage_xlsx/dataset_call.xlsx
+++ b/complaints_call/storage_xlsx/dataset_call.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9585" windowWidth="24000" xWindow="0" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,15 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
@@ -2136,7 +2136,970 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>624042702533402</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>237669800046</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>isActiveIMSI:Subscriber is not attached. Try to restart phone;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;cfb:cfb is defined to 160664022676;cfnrc:cfnrc is defined to 160664022676;cfnry:cfnry is defined to 160664022676;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>odboc:Barring oc in HLR;DOMS02:KNOWN SUBSCRIBER;cfb:cfb is defined to 160664022676;cfnrc:cfnrc is defined to 160664022676;cfnry:cfnry is defined to 160664022676;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>odboc:Barring oc in HLR;DOMS02:KNOWN SUBSCRIBER;cfb:cfb is defined to 160664022676;cfnrc:cfnrc is defined to 160664022676;cfnry:cfnry is defined to 160664022676;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>16066022676</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;cfb:cfb is defined to 160664022676;cfnrc:cfnrc is defined to 16066022676;cfnry:cfnry is defined to 160664022676;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>16066022676</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;cfb:cfb is defined to 160664022676;cfnrc:cfnrc is defined to 16066022676;cfnry:cfnry is defined to 160664022676;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>624042732168871</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>237664022676</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3566780923618278</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>160664022676</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>no_exist:Subscriber exists in any MSS. Restart phone;cfb:cfb is defined to 160664022676;cfnrc:cfnrc is defined to 160664022676;cfnry:cfnry is defined to 160664022676;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>624042700253500</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>237661341827</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>8655500200407700</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>237660001052</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>10.124.208.81</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>no_exist:Subscriber exists in any MSS. Restart phone;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>624042702533402</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>237669800046</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>isActiveIMSI:Subscriber is not attached. Try to restart phone;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/complaints_call/storage_xlsx/dataset_call.xlsx
+++ b/complaints_call/storage_xlsx/dataset_call.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9585" windowWidth="24000" xWindow="0" yWindow="600"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,15 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
@@ -3099,7 +3099,1826 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;odbic:Barring ic in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;odbic:Barring ic in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;odbic:Barring ic in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;odbic:Barring ic in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>odboc:Barring oc in HLR;DOMS02:KNOWN SUBSCRIBER;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>odboc:Barring oc in HLR;DOMS02:KNOWN SUBSCRIBER;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>odboc:Barring oc in HLR;DOMS02:KNOWN SUBSCRIBER;</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:Everything is ok in HLR;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/complaints_call/storage_xlsx/dataset_call.xlsx
+++ b/complaints_call/storage_xlsx/dataset_call.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="600" windowWidth="24000" windowHeight="9585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9585" windowWidth="24000" xWindow="0" yWindow="600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,15 +43,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
@@ -4918,7 +4918,1399 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>624042747312230</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>237663744490</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>3587660809968478</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>237660002052</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>10.124.148.4</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>DOMS02:KNOWN SUBSCRIBER;result:ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>DOMS01:KNOWN SUBSCRIBER;odbic:Barring ic solved;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>DOMS01:KNOWN SUBSCRIBER;odbic:Barring ic solved;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>DOMS01:KNOWN SUBSCRIBER;result:ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>DOMS01:KNOWN SUBSCRIBER;result:ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>DOMS01:KNOWN SUBSCRIBER;odbic:Barring ic solved;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>odboc:Barring oc solved;DOMS01:KNOWN SUBSCRIBER;odbic:Barring ic solved;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>DOMS01:KNOWN SUBSCRIBER;result:ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>odboc:Barring oc solved;DOMS01:KNOWN SUBSCRIBER;odbic:Barring ic solved;</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>DOMS01:KNOWN SUBSCRIBER;result:ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>624042747827156</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>237669595858</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>8630780379935655</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>237660002051</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>10.124.140.1</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>KNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>DOMS01:KNOWN SUBSCRIBER;result:ok;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>searchResponse:requestID=ee4874dc-cedf-4198-b96e-be2e9aef8cac, errorCode=32, errorMessage= error result (32); matchedDN = dc=MSISDN,DC=C-NTDB,entries:
+END OF SEARCH ENTRIES.,</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>UNKNOWN SUBSCRIBER</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>ldapResponse:Unknow Subscriber in HLR;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>